--- a/docs/CS411 Project Assignment - Estimation.xlsx
+++ b/docs/CS411 Project Assignment - Estimation.xlsx
@@ -5,6 +5,7 @@
   <sheets>
     <sheet state="visible" name="consolidated" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Fanjie Gao" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Ruoxuan Li" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="21">
   <si>
     <t>User Story 1</t>
   </si>
@@ -29,43 +30,52 @@
     <t>OAuth to spotify</t>
   </si>
   <si>
+    <t>2.5h</t>
+  </si>
+  <si>
+    <t>store the token</t>
+  </si>
+  <si>
     <t>2h</t>
   </si>
   <si>
-    <t>store the token</t>
+    <t>test api for spotify</t>
+  </si>
+  <si>
+    <t>test api for imdb</t>
+  </si>
+  <si>
+    <t>get user playlist genre</t>
+  </si>
+  <si>
+    <t>0.5h</t>
+  </si>
+  <si>
+    <t>query imdb with the genres</t>
+  </si>
+  <si>
+    <t>algorithm to sort the movies</t>
   </si>
   <si>
     <t>1h</t>
   </si>
   <si>
-    <t>test api for spotify</t>
-  </si>
-  <si>
-    <t>test api for imdb</t>
-  </si>
-  <si>
-    <t>get user playlist genre</t>
+    <t>database to store user and their movie list</t>
+  </si>
+  <si>
+    <t>option to remove movie form list</t>
+  </si>
+  <si>
+    <t>excluded movie list in database</t>
   </si>
   <si>
     <t>0.1h</t>
   </si>
   <si>
-    <t>query imdb with the genres</t>
-  </si>
-  <si>
-    <t>algorithm to sort the movies</t>
-  </si>
-  <si>
-    <t>0.5h</t>
-  </si>
-  <si>
-    <t>database to store user and their movie list</t>
-  </si>
-  <si>
-    <t>option to remove movie form list</t>
-  </si>
-  <si>
-    <t>excluded movie list in database</t>
+    <t>user sotry 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time estimation </t>
   </si>
 </sst>
 </file>
@@ -119,6 +129,10 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -325,7 +339,107 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="31.88"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -364,7 +478,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -372,7 +486,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -396,7 +510,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -404,7 +518,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -412,7 +526,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -428,7 +542,7 @@
         <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
@@ -436,7 +550,118 @@
         <v>17</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
